--- a/sistemaaid/frontend/src/assets/files/Plantilla_Encuesta.xlsx
+++ b/sistemaaid/frontend/src/assets/files/Plantilla_Encuesta.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>P15_¿Tienes familiares o conocidos ralacionados con alguna de esas universidades?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -38,7 +35,79 @@
     <t>Participante</t>
   </si>
   <si>
-    <t xml:space="preserve">NO </t>
+    <t>P17_Prueba</t>
+  </si>
+  <si>
+    <t>LA VERDAD NADA</t>
+  </si>
+  <si>
+    <t>QUE PODÍA APRENDER DESDE CASA</t>
+  </si>
+  <si>
+    <t>ES MÁS CÓMODO PORQUE ESTAS EN CASA</t>
+  </si>
+  <si>
+    <t>LA FACILIDAD DE ESTAR EN MI HOGAR</t>
+  </si>
+  <si>
+    <t>SE PODRÍA DECIR QUE</t>
+  </si>
+  <si>
+    <t>TRABAJAR DESDE CASA</t>
+  </si>
+  <si>
+    <t>EN LO PERSONAL FUÉ MÁS RELAJADA</t>
+  </si>
+  <si>
+    <t>EL HECHO DE ESTAR TRANQUILO</t>
+  </si>
+  <si>
+    <t>TENIA MUCHÍSIMA LIBERTAD AL ESTAR EN MI HOGAR</t>
+  </si>
+  <si>
+    <t>LOS TRABAJOS ESCRITOS EN COMPUTADORA</t>
+  </si>
+  <si>
+    <t>QUE POR LA SITUACIÓN</t>
+  </si>
+  <si>
+    <t>FLEXIBILIDAD</t>
+  </si>
+  <si>
+    <t>APRENDÍ A MANEJAR MEJOR HERRAMIENTAS COMO WORD</t>
+  </si>
+  <si>
+    <t>LA POSIBILIDAD DE TRABAJAR DE MANERA DIGITAL PROYECTOS QUE ANTES SOLO SE LIMITABAN A UNA HOJA</t>
+  </si>
+  <si>
+    <t>QUE ESTABA RELATIVAMENTE TRANQUILO AL MOMENTO DE HACER LOS TRABAJOS</t>
+  </si>
+  <si>
+    <t>QUE FUE OTRA EXPERIENCIA</t>
+  </si>
+  <si>
+    <t>PERSONALMENTE PUDE CONCENTRARME MUCHO MEJOR. AL NO HABER TANTAS PERSONAS HABLANDO A MI LADO O INTERRUMPIENDO LA CLASE</t>
+  </si>
+  <si>
+    <t>LA TRANQUILIDAD DE APRENDER EN CASA</t>
+  </si>
+  <si>
+    <t>PROTECCIÓN ANTE LA PANDEMIA</t>
+  </si>
+  <si>
+    <t>MANEJO DE TECNOLOGÍA</t>
+  </si>
+  <si>
+    <t>CONOCER DIFERENTES PLATAFORMAS</t>
+  </si>
+  <si>
+    <t>INTERNET TIENE TODAS LAS HERRAMIENTAS NECESARIAS PARA APRENDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUE APRENDIÓ A USAR NUEVAS HERRAMIENTAS CÓMO CONVERTIR UN DOCUMENTO PDF </t>
+  </si>
+  <si>
+    <t>SE UTILIZARON HERRAMIENTAS NOVEDOSAS</t>
   </si>
 </sst>
 </file>
@@ -46,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,7 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,30 +452,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -414,10 +482,263 @@
         <v>44762</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>44762</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/sistemaaid/frontend/src/assets/files/Plantilla_Encuesta.xlsx
+++ b/sistemaaid/frontend/src/assets/files/Plantilla_Encuesta.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
